--- a/REFramework/C#/Data/Config.xlsx
+++ b/REFramework/C#/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreea.ghetu\Documents\UiPath\CSharpChanges\StudioTemplates\REFramework\C#\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456FE426-04E8-4D38-B7C2-740B41BF93DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96902286-4E3C-425E-A0BF-F83C72A8C5F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -634,7 +634,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -832,7 +832,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
